--- a/September/Requisition of Tulip-2/03.09.19 Requisition of Tulip-2.xlsx
+++ b/September/Requisition of Tulip-2/03.09.19 Requisition of Tulip-2.xlsx
@@ -1007,7 +1007,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I85" sqref="I85"/>
+      <selection pane="bottomRight" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="C90" s="23">
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="26"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="C94" s="24">
         <f>SUBTOTAL(9,C88:C93)</f>
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="26"/>
